--- a/TDStore/TD store_Tháng 4.2023.xlsx
+++ b/TDStore/TD store_Tháng 4.2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuan\Desktop\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A270D6C8-9EBF-4340-B614-3DE7B5CD7F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02DF11A-D6FD-4C10-AB36-A64A494B3987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp tồn kho cũ" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="183">
   <si>
     <t>Tên mặt hàng</t>
   </si>
@@ -541,6 +541,63 @@
   </si>
   <si>
     <t>SỔ CHI TIẾN BÁN HÀNG THÁNG 4.2023</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>USB64</t>
+  </si>
+  <si>
+    <t>USB 2 đầu 64GB</t>
+  </si>
+  <si>
+    <t>24/3/23</t>
+  </si>
+  <si>
+    <t>13/4/23</t>
+  </si>
+  <si>
+    <t>19/04/23</t>
+  </si>
+  <si>
+    <t>k3</t>
+  </si>
+  <si>
+    <t>15/04/23</t>
+  </si>
+  <si>
+    <t>16/04</t>
+  </si>
+  <si>
+    <t>17/04/23</t>
+  </si>
+  <si>
+    <t>18/04/23</t>
+  </si>
+  <si>
+    <t>22/04/23</t>
+  </si>
+  <si>
+    <t>m24</t>
+  </si>
+  <si>
+    <t>23/4/23</t>
+  </si>
+  <si>
+    <t>25/04/23</t>
+  </si>
+  <si>
+    <t>28/4/23</t>
+  </si>
+  <si>
+    <t>20/04/23</t>
   </si>
 </sst>
 </file>
@@ -1053,6 +1110,13 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1116,13 +1180,6 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1451,10 +1508,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="106" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1510,8 +1567,8 @@
       </c>
     </row>
     <row r="2" spans="1:26" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="104"/>
-      <c r="B2" s="102"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="107"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
@@ -7376,11 +7433,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:J33"/>
+  <dimension ref="B3:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7396,12 +7453,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
     </row>
     <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="60" t="s">
@@ -7861,10 +7918,10 @@
     <row r="31" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="40"/>
       <c r="C31" s="33" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="39"/>
@@ -7874,14 +7931,12 @@
       <c r="J31" s="39"/>
     </row>
     <row r="32" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="40">
-        <v>25</v>
-      </c>
+      <c r="B32" s="40"/>
       <c r="C32" s="33" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="39"/>
@@ -7892,13 +7947,13 @@
     </row>
     <row r="33" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="40">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="39"/>
@@ -7906,6 +7961,23 @@
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
       <c r="J33" s="39"/>
+    </row>
+    <row r="34" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="40">
+        <v>26</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="33"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7933,7 +8005,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13:K15"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7955,32 +8027,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="107"/>
+      <c r="B1" s="112"/>
       <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
       <c r="C2" s="44"/>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
     </row>
     <row r="3" spans="1:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
       <c r="C3" s="44"/>
       <c r="D3" s="39" t="s">
         <v>65</v>
@@ -8011,8 +8083,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="112"/>
       <c r="D4" s="60" t="s">
         <v>78</v>
       </c>
@@ -8045,57 +8117,73 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="44"/>
-      <c r="D5" s="54"/>
+      <c r="D5" s="54" t="s">
+        <v>169</v>
+      </c>
       <c r="E5" s="87"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F5,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="41" t="e">
+      <c r="F5" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="40" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(F5,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>USB 2 đầu 64GB</v>
+      </c>
+      <c r="H5" s="33">
+        <v>15</v>
+      </c>
+      <c r="I5" s="41">
         <f>J5/H5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="41"/>
+        <v>112256.66666666667</v>
+      </c>
+      <c r="J5" s="41">
+        <v>1683850</v>
+      </c>
       <c r="K5" s="74"/>
       <c r="L5" s="68">
         <f>+J5+K5</f>
-        <v>0</v>
+        <v>1683850</v>
       </c>
       <c r="M5" s="68">
         <f>+IFERROR((J5+K5)/H5,0)</f>
-        <v>0</v>
+        <v>112256.66666666667</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="44"/>
-      <c r="D6" s="54"/>
+      <c r="D6" s="54" t="s">
+        <v>182</v>
+      </c>
       <c r="E6" s="87"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F6,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="41" t="e">
+      <c r="F6" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="40" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(F6,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Sạc Thinkplus gen 2 đen new</v>
+      </c>
+      <c r="H6" s="33">
+        <v>5</v>
+      </c>
+      <c r="I6" s="41">
         <f t="shared" ref="I6:I22" si="0">J6/H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="41"/>
+        <v>441200</v>
+      </c>
+      <c r="J6" s="41">
+        <v>2206000</v>
+      </c>
       <c r="K6" s="74"/>
       <c r="L6" s="68">
         <f t="shared" ref="L6:L21" si="1">+J6+K6</f>
-        <v>0</v>
+        <v>2206000</v>
       </c>
       <c r="M6" s="68">
         <f t="shared" ref="M6:M22" si="2">+IFERROR((J6+K6)/H6,0)</f>
-        <v>0</v>
+        <v>441200</v>
       </c>
       <c r="O6" s="39" t="s">
         <v>90</v>
@@ -8112,7 +8200,7 @@
       <c r="E7" s="87"/>
       <c r="F7" s="33"/>
       <c r="G7" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F7,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(F7,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="H7" s="33"/>
@@ -8145,7 +8233,7 @@
       <c r="E8" s="87"/>
       <c r="F8" s="33"/>
       <c r="G8" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F8,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(F8,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="H8" s="33"/>
@@ -8178,7 +8266,7 @@
       <c r="E9" s="87"/>
       <c r="F9" s="33"/>
       <c r="G9" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F9,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(F9,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="H9" s="33"/>
@@ -8208,7 +8296,7 @@
       <c r="E10" s="87"/>
       <c r="F10" s="99"/>
       <c r="G10" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F10,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(F10,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="H10" s="33"/>
@@ -8238,7 +8326,7 @@
       <c r="E11" s="87"/>
       <c r="F11" s="33"/>
       <c r="G11" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F11,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(F11,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="H11" s="33"/>
@@ -8268,7 +8356,7 @@
       <c r="E12" s="87"/>
       <c r="F12" s="33"/>
       <c r="G12" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F12,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(F12,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="H12" s="33"/>
@@ -8292,7 +8380,7 @@
       <c r="E13" s="87"/>
       <c r="F13" s="33"/>
       <c r="G13" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F13,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(F13,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="H13" s="33"/>
@@ -8322,7 +8410,7 @@
       <c r="E14" s="87"/>
       <c r="F14" s="33"/>
       <c r="G14" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F14,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(F14,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="H14" s="33"/>
@@ -8352,7 +8440,7 @@
       <c r="E15" s="87"/>
       <c r="F15" s="33"/>
       <c r="G15" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F15,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(F15,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="H15" s="33"/>
@@ -8382,7 +8470,7 @@
       <c r="E16" s="87"/>
       <c r="F16" s="33"/>
       <c r="G16" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F16,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(F16,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="H16" s="33"/>
@@ -8408,7 +8496,7 @@
       <c r="E17" s="87"/>
       <c r="F17" s="33"/>
       <c r="G17" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F17,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(F17,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="H17" s="33"/>
@@ -8434,7 +8522,7 @@
       <c r="E18" s="87"/>
       <c r="F18" s="33"/>
       <c r="G18" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F18,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(F18,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="H18" s="33"/>
@@ -8460,7 +8548,7 @@
       <c r="E19" s="87"/>
       <c r="F19" s="33"/>
       <c r="G19" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F19,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(F19,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="H19" s="33"/>
@@ -8484,7 +8572,7 @@
       <c r="E20" s="87"/>
       <c r="F20" s="33"/>
       <c r="G20" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F20,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(F20,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="H20" s="33"/>
@@ -8512,7 +8600,7 @@
       <c r="E21" s="87"/>
       <c r="F21" s="33"/>
       <c r="G21" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F21,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(F21,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="33"/>
@@ -8543,7 +8631,7 @@
       <c r="E22" s="87"/>
       <c r="F22" s="33"/>
       <c r="G22" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F22,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(F22,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="33"/>
@@ -8571,7 +8659,7 @@
       <c r="G23" s="33"/>
       <c r="H23" s="33">
         <f>SUM(H5:H22)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I23" s="33"/>
       <c r="J23" s="33"/>
@@ -8621,13 +8709,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
-            <xm:f>'Danh mục hàng hóa'!$C$7:$C$33</xm:f>
+            <xm:f>'Danh mục hàng hóa'!$C$7:$C$34</xm:f>
           </x14:formula1>
           <xm:sqref>F6:F22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
-            <xm:f>'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$A$36</xm:f>
+            <xm:f>'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$A$37</xm:f>
           </x14:formula1>
           <xm:sqref>F5</xm:sqref>
         </x14:dataValidation>
@@ -8641,9 +8729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:R70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8669,21 +8757,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
     </row>
     <row r="3" spans="1:18" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -8721,163 +8809,205 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="111" t="s">
+      <c r="C4" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="111" t="s">
+      <c r="F4" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="109" t="s">
+      <c r="G4" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="111" t="s">
+      <c r="H4" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="111" t="s">
+      <c r="I4" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="111" t="s">
+      <c r="J4" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="111" t="s">
+      <c r="K4" s="116" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B6,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+      <c r="A6" s="27">
+        <v>44961</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B6,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Chuột lenovo bluetooth M1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
       <c r="E6" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B6,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B6,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>128976.97420174476</v>
       </c>
       <c r="F6" s="69">
         <f>+D6*E6</f>
-        <v>0</v>
+        <v>128976.97420174476</v>
       </c>
       <c r="G6" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B6,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B6,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>193465.46130261713</v>
+      </c>
+      <c r="H6" s="38">
+        <v>250000</v>
+      </c>
       <c r="I6" s="38">
         <f>D6*H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="7"/>
+        <v>250000</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B7,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+      <c r="A7" s="27">
+        <v>44961</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B7,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Túi chống sốc màu đen Xiaoxin 14</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
       <c r="E7" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B7,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B7,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>119648.55442403493</v>
       </c>
       <c r="F7" s="69">
         <f t="shared" ref="F7:F55" si="0">+D7*E7</f>
-        <v>0</v>
+        <v>119648.55442403493</v>
       </c>
       <c r="G7" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B7,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B7,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>179472.8316360524</v>
+      </c>
+      <c r="H7" s="38">
+        <v>250000</v>
+      </c>
       <c r="I7" s="38">
         <f t="shared" ref="I7:I67" si="1">D7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="28"/>
+        <v>250000</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B8,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+      <c r="A8" s="27">
+        <v>44961</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B8,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Chuột lenovo bluetooth M1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
       <c r="E8" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B8,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B8,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>128976.97420174476</v>
       </c>
       <c r="F8" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>128976.97420174476</v>
       </c>
       <c r="G8" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B8,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B8,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>193465.46130261713</v>
+      </c>
+      <c r="H8" s="38">
+        <v>130000</v>
+      </c>
       <c r="I8" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="28"/>
+        <v>130000</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B9,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+      <c r="A9" s="27">
+        <v>44989</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B9,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Dây type C to slim</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
       <c r="E9" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B9,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B9,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>73020.600000000006</v>
       </c>
       <c r="F9" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73020.600000000006</v>
       </c>
       <c r="G9" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B9,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B9,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>109530.90000000001</v>
+      </c>
+      <c r="H9" s="38">
+        <v>100000</v>
+      </c>
       <c r="I9" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="28"/>
+        <v>100000</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="M9" s="52" t="s">
         <v>108</v>
@@ -8899,133 +9029,163 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B10,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+      <c r="A10" s="27">
+        <v>44989</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B10,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Sạc gen 1 có hộp</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
       <c r="E10" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B10,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B10,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>249127</v>
       </c>
       <c r="F10" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>249127</v>
       </c>
       <c r="G10" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B10,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B10,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>373690.5</v>
+      </c>
+      <c r="H10" s="38">
+        <v>300000</v>
+      </c>
       <c r="I10" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="28"/>
+        <v>300000</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="M10" s="28" t="s">
         <v>68</v>
       </c>
       <c r="N10" s="70">
         <f>SUMIF($J$6:$J$69,M10,$I$6:$I$69)</f>
-        <v>0</v>
+        <v>3645000</v>
       </c>
       <c r="O10" s="70">
         <f>SUMIF($J$6:$J$69,M10,$F$6:$F$69)</f>
-        <v>0</v>
+        <v>2172020.0701317657</v>
       </c>
       <c r="P10" s="71">
         <f>+N10-O10</f>
-        <v>0</v>
+        <v>1472979.9298682343</v>
       </c>
       <c r="Q10" s="70">
         <f>+P10*20%</f>
-        <v>0</v>
+        <v>294595.98597364686</v>
       </c>
       <c r="R10" s="71">
         <f>+P10-Q10</f>
-        <v>0</v>
+        <v>1178383.9438945875</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B11,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="7"/>
+      <c r="A11" s="27">
+        <v>44989</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B11,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Sạc Thinkplus gen 2 đen new</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
       <c r="E11" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B11,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B11,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>449057.14285714284</v>
       </c>
       <c r="F11" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>449057.14285714284</v>
       </c>
       <c r="G11" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B11,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B11,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>673585.71428571432</v>
+      </c>
+      <c r="H11" s="38">
+        <v>820000</v>
+      </c>
       <c r="I11" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="28"/>
+        <v>820000</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>159</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="M11" s="28" t="s">
         <v>69</v>
       </c>
       <c r="N11" s="70">
         <f>SUMIF($J$6:$J$69,M11,$I$6:$I$69)</f>
-        <v>0</v>
+        <v>5982000</v>
       </c>
       <c r="O11" s="70">
         <f>SUMIF($J$6:$J$69,M11,$F$6:$F$69)</f>
-        <v>0</v>
+        <v>3331650.2157721659</v>
       </c>
       <c r="P11" s="71">
         <f t="shared" ref="P11:P13" si="2">+N11-O11</f>
-        <v>0</v>
+        <v>2650349.7842278341</v>
       </c>
       <c r="Q11" s="70">
         <f t="shared" ref="Q11:Q12" si="3">+P11*20%</f>
-        <v>0</v>
+        <v>530069.95684556686</v>
       </c>
       <c r="R11" s="71">
         <f t="shared" ref="R11:R13" si="4">+P11-Q11</f>
-        <v>0</v>
+        <v>2120279.8273822675</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B12,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
+      <c r="A12" s="27">
+        <v>45142</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B12,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Chuột lenovo bluetooth M1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
       <c r="E12" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B12,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B12,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>128976.97420174476</v>
       </c>
       <c r="F12" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>128976.97420174476</v>
       </c>
       <c r="G12" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B12,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B12,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>193465.46130261713</v>
+      </c>
+      <c r="H12" s="38">
+        <v>250000</v>
+      </c>
       <c r="I12" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="28"/>
+        <v>250000</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="M12" s="28" t="s">
         <v>103</v>
@@ -9052,760 +9212,1012 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B13,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="7"/>
+      <c r="A13" s="27">
+        <v>45142</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B13,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Sạc Thinkplus gen 2 k hộp</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
       <c r="E13" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B13,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B13,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>298513.47499999998</v>
       </c>
       <c r="F13" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>298513.47499999998</v>
       </c>
       <c r="G13" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B13,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B13,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>447770.21249999997</v>
+      </c>
+      <c r="H13" s="38">
+        <v>500000</v>
+      </c>
       <c r="I13" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="7"/>
+        <v>500000</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="M13" s="28" t="s">
         <v>159</v>
       </c>
       <c r="N13" s="70">
         <f>SUMIF($J$6:$J$69,M13,$I$6:$I$69)</f>
-        <v>0</v>
+        <v>3260000</v>
       </c>
       <c r="O13" s="70">
         <f>SUMIF($J$6:$J$69,M13,$F$6:$F$69)</f>
-        <v>0</v>
+        <v>2189697.0005508279</v>
       </c>
       <c r="P13" s="71">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1070302.9994491721</v>
       </c>
       <c r="Q13" s="71"/>
       <c r="R13" s="71">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1070302.9994491721</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B14,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
+      <c r="A14" s="27">
+        <v>45173</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B14,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Chuột M24</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
       <c r="E14" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B14,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B14,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>96821.919038737062</v>
       </c>
       <c r="F14" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>193643.83807747412</v>
       </c>
       <c r="G14" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B14,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B14,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>145232.87855810559</v>
+      </c>
+      <c r="H14" s="38">
+        <v>160000</v>
+      </c>
       <c r="I14" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="28"/>
+        <v>320000</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="M14" s="23" t="s">
         <v>55</v>
       </c>
       <c r="N14" s="72">
         <f>SUM(N10:N13)</f>
-        <v>0</v>
+        <v>12887000</v>
       </c>
       <c r="O14" s="72">
         <f>SUM(O10:O13)</f>
-        <v>0</v>
+        <v>7693367.2864547595</v>
       </c>
       <c r="P14" s="72">
         <f t="shared" ref="P14" si="5">SUM(P10:P13)</f>
-        <v>0</v>
+        <v>5193632.7135452405</v>
       </c>
       <c r="Q14" s="72">
         <f t="shared" ref="Q14" si="6">SUM(Q10:Q13)</f>
-        <v>0</v>
+        <v>824665.94281921373</v>
       </c>
       <c r="R14" s="72">
         <f t="shared" ref="R14" si="7">SUM(R10:R13)</f>
-        <v>0</v>
+        <v>4368966.770726027</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B15,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+      <c r="A15" s="27">
+        <v>45173</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B15,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Chuột lenovo bluetooth M1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
       <c r="E15" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B15,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B15,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>128976.97420174476</v>
       </c>
       <c r="F15" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>128976.97420174476</v>
       </c>
       <c r="G15" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B15,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B15,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>193465.46130261713</v>
+      </c>
+      <c r="H15" s="38">
+        <v>250000</v>
+      </c>
       <c r="I15" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="28"/>
+        <v>250000</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="K15" s="7"/>
       <c r="M15" s="39"/>
       <c r="N15" s="49"/>
     </row>
     <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B16,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="7"/>
+      <c r="A16" s="27">
+        <v>45173</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B16,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>USB 2 đầu 64GB</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
       <c r="E16" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B16,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B16,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>112256.66666666667</v>
       </c>
       <c r="F16" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>112256.66666666667</v>
       </c>
       <c r="G16" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B16,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B16,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>168385</v>
+      </c>
+      <c r="H16" s="38">
+        <v>235000</v>
+      </c>
       <c r="I16" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="28"/>
+        <v>235000</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B17,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="7"/>
+      <c r="A17" s="27">
+        <v>45173</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B17,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Sạc Thinkplus gen 2 đen new</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
       <c r="E17" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B17,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B17,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>449057.14285714284</v>
       </c>
       <c r="F17" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>449057.14285714284</v>
       </c>
       <c r="G17" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B17,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B17,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>673585.71428571432</v>
+      </c>
+      <c r="H17" s="38">
+        <v>850000</v>
+      </c>
       <c r="I17" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="28"/>
+        <v>850000</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B18,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="7"/>
+      <c r="A18" s="27">
+        <v>45173</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B18,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>USB 2 đầu 64GB</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
       <c r="E18" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B18,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B18,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>112256.66666666667</v>
       </c>
       <c r="F18" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>112256.66666666667</v>
       </c>
       <c r="G18" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B18,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B18,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>168385</v>
+      </c>
+      <c r="H18" s="38">
+        <v>250000</v>
+      </c>
       <c r="I18" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="28"/>
+        <v>250000</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B19,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
+      <c r="A19" s="27">
+        <v>45203</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B19,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Chuột Thinklife</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
       <c r="E19" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B19,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B19,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>312279.65018607123</v>
       </c>
       <c r="F19" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>312279.65018607123</v>
       </c>
       <c r="G19" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B19,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B19,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>468419.47527910687</v>
+      </c>
+      <c r="H19" s="38">
+        <v>500000</v>
+      </c>
       <c r="I19" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="28"/>
+        <v>500000</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B20,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
+      <c r="A20" s="27">
+        <v>45203</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B20,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Loa K3 Pro</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
       <c r="E20" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B20,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B20,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>107421.71041666667</v>
       </c>
       <c r="F20" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>214843.42083333334</v>
       </c>
       <c r="G20" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B20,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B20,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>161132.56562499999</v>
+      </c>
+      <c r="H20" s="38">
+        <v>172000</v>
+      </c>
       <c r="I20" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="28"/>
+        <v>344000</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B21,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
+      <c r="A21" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B21,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Sạc Thinkplus gen 2 Pro đen new</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
       <c r="E21" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B21,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B21,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>612000</v>
       </c>
       <c r="F21" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>612000</v>
       </c>
       <c r="G21" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B21,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B21,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>918000</v>
+      </c>
+      <c r="H21" s="38">
+        <v>950000</v>
+      </c>
       <c r="I21" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="28"/>
+        <v>950000</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>159</v>
+      </c>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B22,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="7"/>
+      <c r="A22" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B22,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Loa K3 Pro</v>
+      </c>
+      <c r="D22" s="7">
+        <v>6</v>
+      </c>
       <c r="E22" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B22,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B22,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>107421.71041666667</v>
       </c>
       <c r="F22" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>644530.26249999995</v>
       </c>
       <c r="G22" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B22,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B22,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>161132.56562499999</v>
+      </c>
+      <c r="H22" s="38">
+        <v>140000</v>
+      </c>
       <c r="I22" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="28"/>
+        <v>840000</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>159</v>
+      </c>
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B23,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="7"/>
+      <c r="A23" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B23,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Loa K3 Pro</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
       <c r="E23" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B23,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B23,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>107421.71041666667</v>
       </c>
       <c r="F23" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107421.71041666667</v>
       </c>
       <c r="G23" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B23,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B23,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>161132.56562499999</v>
+      </c>
+      <c r="H23" s="38">
+        <v>179000</v>
+      </c>
       <c r="I23" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="28"/>
+        <v>179000</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B24,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="7"/>
+      <c r="A24" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B24,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Chuột Thinklife</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
       <c r="E24" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B24,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B24,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>312279.65018607123</v>
       </c>
       <c r="F24" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>312279.65018607123</v>
       </c>
       <c r="G24" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B24,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B24,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>468419.47527910687</v>
+      </c>
+      <c r="H24" s="38">
+        <v>485000</v>
+      </c>
       <c r="I24" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="28"/>
+        <v>485000</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B25,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="7"/>
+      <c r="A25" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B25,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Túi chống sốc màu đen Xiaoxin 14</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
       <c r="E25" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B25,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B25,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>119648.55442403493</v>
       </c>
       <c r="F25" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>119648.55442403493</v>
       </c>
       <c r="G25" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B25,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B25,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>179472.8316360524</v>
+      </c>
+      <c r="H25" s="38">
+        <v>250000</v>
+      </c>
       <c r="I25" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="28"/>
+        <v>250000</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B26,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="7"/>
+      <c r="A26" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B26,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Túi chống sốc màu đen Xiaoxin 14</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
       <c r="E26" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B26,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B26,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>119648.55442403493</v>
       </c>
       <c r="F26" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>119648.55442403493</v>
       </c>
       <c r="G26" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B26,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B26,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>179472.8316360524</v>
+      </c>
+      <c r="H26" s="38">
+        <v>250000</v>
+      </c>
       <c r="I26" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="28"/>
+        <v>250000</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B27,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="7"/>
+      <c r="A27" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B27,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Dây type C to slim</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
       <c r="E27" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B27,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B27,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>73020.600000000006</v>
       </c>
       <c r="F27" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73020.600000000006</v>
       </c>
       <c r="G27" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B27,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B27,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>109530.90000000001</v>
+      </c>
+      <c r="H27" s="38">
+        <v>100000</v>
+      </c>
       <c r="I27" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="28"/>
+        <v>100000</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B28,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="7"/>
+      <c r="A28" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B28,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Loa K3 Pro</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
       <c r="E28" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B28,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B28,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>107421.71041666667</v>
       </c>
       <c r="F28" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107421.71041666667</v>
       </c>
       <c r="G28" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B28,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B28,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>161132.56562499999</v>
+      </c>
+      <c r="H28" s="38">
+        <v>179000</v>
+      </c>
       <c r="I28" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="28"/>
+        <v>179000</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B29,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="7"/>
+      <c r="A29" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B29,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Túi chống sốc màu đen Xiaoxin 14</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
       <c r="E29" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B29,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B29,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>119648.55442403493</v>
       </c>
       <c r="F29" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>119648.55442403493</v>
       </c>
       <c r="G29" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B29,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B29,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>179472.8316360524</v>
+      </c>
+      <c r="H29" s="38">
+        <v>250000</v>
+      </c>
       <c r="I29" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="28"/>
+        <v>250000</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B30,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="7"/>
+      <c r="A30" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B30,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Sạc YOGA</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
       <c r="E30" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B30,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B30,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>238082.66611622242</v>
       </c>
       <c r="F30" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>238082.66611622242</v>
       </c>
       <c r="G30" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B30,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B30,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>357123.99917433364</v>
+      </c>
+      <c r="H30" s="38">
+        <v>500000</v>
+      </c>
       <c r="I30" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="28"/>
+        <v>500000</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B31,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="7"/>
+      <c r="A31" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B31,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Chuột M24</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
       <c r="E31" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B31,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B31,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>96821.919038737062</v>
       </c>
       <c r="F31" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96821.919038737062</v>
       </c>
       <c r="G31" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B31,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B31,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>145232.87855810559</v>
+      </c>
+      <c r="H31" s="38">
+        <v>160000</v>
+      </c>
       <c r="I31" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="28"/>
+        <v>160000</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="K31" s="7"/>
     </row>
     <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B32,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="7"/>
+      <c r="A32" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B32,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Chuột Thinklife</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
       <c r="E32" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B32,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B32,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>312279.65018607123</v>
       </c>
       <c r="F32" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>312279.65018607123</v>
       </c>
       <c r="G32" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B32,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B32,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>468419.47527910687</v>
+      </c>
+      <c r="H32" s="38">
+        <v>450000</v>
+      </c>
       <c r="I32" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="28"/>
+        <v>450000</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B33,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="7"/>
+      <c r="A33" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B33,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Chuột thinkpad</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
       <c r="E33" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B33,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B33,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>251905.6</v>
       </c>
       <c r="F33" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>251905.6</v>
       </c>
       <c r="G33" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B33,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B33,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>377858.4</v>
+      </c>
+      <c r="H33" s="38">
+        <v>435000</v>
+      </c>
       <c r="I33" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="28"/>
+        <v>435000</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B34,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="7"/>
+      <c r="A34" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B34,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Sạc Thinkplus gen 2 đen new</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
       <c r="E34" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B34,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B34,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>449057.14285714284</v>
       </c>
       <c r="F34" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>449057.14285714284</v>
       </c>
       <c r="G34" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B34,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B34,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>673585.71428571432</v>
+      </c>
+      <c r="H34" s="38">
+        <v>850000</v>
+      </c>
       <c r="I34" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="28"/>
+        <v>850000</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="K34" s="7"/>
     </row>
     <row r="35" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B35,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="7"/>
+      <c r="A35" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B35,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Sạc Thinkplus gen 2 đen new</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
       <c r="E35" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B35,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B35,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>449057.14285714284</v>
       </c>
       <c r="F35" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>449057.14285714284</v>
       </c>
       <c r="G35" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B35,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B35,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>673585.71428571432</v>
+      </c>
+      <c r="H35" s="38">
+        <v>850000</v>
+      </c>
       <c r="I35" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="28"/>
+        <v>850000</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="K35" s="7"/>
     </row>
     <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B36,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="7"/>
+      <c r="A36" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B36,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Chuột M24</v>
+      </c>
+      <c r="D36" s="7">
+        <v>5</v>
+      </c>
       <c r="E36" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B36,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B36,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>96821.919038737062</v>
       </c>
       <c r="F36" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>484109.59519368532</v>
       </c>
       <c r="G36" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B36,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B36,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>145232.87855810559</v>
+      </c>
+      <c r="H36" s="38">
+        <v>130000</v>
+      </c>
       <c r="I36" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="28"/>
+        <v>650000</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>159</v>
+      </c>
       <c r="K36" s="7"/>
     </row>
     <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B37,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="7"/>
+      <c r="A37" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B37,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <v>Chuột M24</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
       <c r="E37" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B37,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
-        <v>0</v>
+        <f>_xlfn.IFNA(VLOOKUP(B37,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <v>96821.919038737062</v>
       </c>
       <c r="F37" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96821.919038737062</v>
       </c>
       <c r="G37" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B37,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="38"/>
+        <f>_xlfn.IFNA(VLOOKUP(B37,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <v>145232.87855810559</v>
+      </c>
+      <c r="H37" s="38">
+        <v>160000</v>
+      </c>
       <c r="I37" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="28"/>
+        <v>160000</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="K37" s="7"/>
     </row>
     <row r="38" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="7"/>
       <c r="C38" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B38,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B38,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B38,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B38,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F38" s="69">
@@ -9813,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B38,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B38,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H38" s="38"/>
@@ -9828,12 +10240,12 @@
       <c r="A39" s="28"/>
       <c r="B39" s="7"/>
       <c r="C39" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B39,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B39,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B39,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B39,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F39" s="69">
@@ -9841,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B39,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B39,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H39" s="38"/>
@@ -9856,12 +10268,12 @@
       <c r="A40" s="28"/>
       <c r="B40" s="7"/>
       <c r="C40" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B40,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B40,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B40,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B40,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F40" s="69">
@@ -9869,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B40,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B40,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H40" s="38"/>
@@ -9884,12 +10296,12 @@
       <c r="A41" s="28"/>
       <c r="B41" s="7"/>
       <c r="C41" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B41,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B41,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B41,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B41,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F41" s="69">
@@ -9897,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B41,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B41,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H41" s="38"/>
@@ -9912,12 +10324,12 @@
       <c r="A42" s="28"/>
       <c r="B42" s="7"/>
       <c r="C42" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B42,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B42,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B42,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B42,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F42" s="69">
@@ -9925,7 +10337,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B42,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B42,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H42" s="38"/>
@@ -9940,12 +10352,12 @@
       <c r="A43" s="28"/>
       <c r="B43" s="7"/>
       <c r="C43" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B43,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B43,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B43,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B43,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F43" s="69">
@@ -9953,7 +10365,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B43,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B43,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H43" s="38"/>
@@ -9968,12 +10380,12 @@
       <c r="A44" s="28"/>
       <c r="B44" s="7"/>
       <c r="C44" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B44,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B44,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B44,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B44,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F44" s="69">
@@ -9981,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B44,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B44,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H44" s="38"/>
@@ -9996,12 +10408,12 @@
       <c r="A45" s="28"/>
       <c r="B45" s="7"/>
       <c r="C45" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B45,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B45,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B45,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B45,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F45" s="69">
@@ -10009,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B45,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B45,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H45" s="38"/>
@@ -10024,12 +10436,12 @@
       <c r="A46" s="28"/>
       <c r="B46" s="7"/>
       <c r="C46" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B46,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B46,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B46,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B46,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F46" s="69">
@@ -10037,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B46,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B46,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H46" s="38"/>
@@ -10052,12 +10464,12 @@
       <c r="A47" s="28"/>
       <c r="B47" s="7"/>
       <c r="C47" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B47,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B47,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B47,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B47,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F47" s="69">
@@ -10065,7 +10477,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B47,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B47,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H47" s="38"/>
@@ -10080,12 +10492,12 @@
       <c r="A48" s="28"/>
       <c r="B48" s="7"/>
       <c r="C48" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B48,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B48,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B48,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B48,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F48" s="69">
@@ -10093,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B48,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B48,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H48" s="38"/>
@@ -10108,12 +10520,12 @@
       <c r="A49" s="28"/>
       <c r="B49" s="7"/>
       <c r="C49" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B49,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B49,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B49,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B49,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F49" s="69">
@@ -10121,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B49,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B49,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H49" s="38"/>
@@ -10136,12 +10548,12 @@
       <c r="A50" s="28"/>
       <c r="B50" s="7"/>
       <c r="C50" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B50,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B50,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B50,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B50,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F50" s="69">
@@ -10149,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B50,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B50,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H50" s="38"/>
@@ -10164,12 +10576,12 @@
       <c r="A51" s="28"/>
       <c r="B51" s="7"/>
       <c r="C51" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B51,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B51,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B51,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B51,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F51" s="69">
@@ -10177,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B51,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B51,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H51" s="38"/>
@@ -10192,12 +10604,12 @@
       <c r="A52" s="28"/>
       <c r="B52" s="7"/>
       <c r="C52" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B52,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B52,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B52,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B52,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F52" s="69">
@@ -10205,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B52,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B52,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H52" s="38"/>
@@ -10220,12 +10632,12 @@
       <c r="A53" s="28"/>
       <c r="B53" s="7"/>
       <c r="C53" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B53,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B53,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B53,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B53,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F53" s="69">
@@ -10233,7 +10645,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B53,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B53,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H53" s="38"/>
@@ -10248,12 +10660,12 @@
       <c r="A54" s="28"/>
       <c r="B54" s="7"/>
       <c r="C54" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B54,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B54,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B54,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B54,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F54" s="69">
@@ -10261,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B54,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B54,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H54" s="38"/>
@@ -10276,12 +10688,12 @@
       <c r="A55" s="28"/>
       <c r="B55" s="7"/>
       <c r="C55" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B55,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B55,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B55,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B55,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F55" s="69">
@@ -10289,7 +10701,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B55,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B55,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H55" s="38"/>
@@ -10304,12 +10716,12 @@
       <c r="A56" s="28"/>
       <c r="B56" s="7"/>
       <c r="C56" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B56,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B56,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B56,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B56,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F56" s="69">
@@ -10317,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B56,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B56,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H56" s="38"/>
@@ -10332,12 +10744,12 @@
       <c r="A57" s="28"/>
       <c r="B57" s="7"/>
       <c r="C57" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B57,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B57,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B57,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B57,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F57" s="69">
@@ -10345,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B57,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B57,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H57" s="38"/>
@@ -10360,12 +10772,12 @@
       <c r="A58" s="28"/>
       <c r="B58" s="7"/>
       <c r="C58" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B58,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B58,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B58,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B58,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F58" s="69">
@@ -10373,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B58,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B58,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H58" s="38"/>
@@ -10388,12 +10800,12 @@
       <c r="A59" s="28"/>
       <c r="B59" s="7"/>
       <c r="C59" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B59,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B59,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B59,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B59,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F59" s="69">
@@ -10401,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B59,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B59,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H59" s="38"/>
@@ -10416,12 +10828,12 @@
       <c r="A60" s="28"/>
       <c r="B60" s="7"/>
       <c r="C60" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B60,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B60,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B60,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B60,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F60" s="69">
@@ -10429,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B60,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B60,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H60" s="38"/>
@@ -10444,12 +10856,12 @@
       <c r="A61" s="28"/>
       <c r="B61" s="7"/>
       <c r="C61" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B61,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B61,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B61,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B61,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F61" s="69">
@@ -10457,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B61,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B61,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H61" s="38"/>
@@ -10472,12 +10884,12 @@
       <c r="A62" s="28"/>
       <c r="B62" s="7"/>
       <c r="C62" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B62,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B62,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B62,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B62,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F62" s="69">
@@ -10485,7 +10897,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B62,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B62,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H62" s="38"/>
@@ -10500,12 +10912,12 @@
       <c r="A63" s="28"/>
       <c r="B63" s="7"/>
       <c r="C63" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B63,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B63,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B63,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B63,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F63" s="69">
@@ -10513,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B63,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B63,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H63" s="38"/>
@@ -10528,12 +10940,12 @@
       <c r="A64" s="28"/>
       <c r="B64" s="7"/>
       <c r="C64" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B64,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B64,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B64,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B64,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F64" s="69">
@@ -10541,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B64,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B64,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H64" s="38"/>
@@ -10556,12 +10968,12 @@
       <c r="A65" s="28"/>
       <c r="B65" s="7"/>
       <c r="C65" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B65,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B65,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B65,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B65,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F65" s="69">
@@ -10569,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B65,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B65,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H65" s="38"/>
@@ -10584,12 +10996,12 @@
       <c r="A66" s="28"/>
       <c r="B66" s="7"/>
       <c r="C66" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B66,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B66,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B66,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B66,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F66" s="69">
@@ -10597,7 +11009,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B66,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B66,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H66" s="38"/>
@@ -10612,12 +11024,12 @@
       <c r="A67" s="28"/>
       <c r="B67" s="7"/>
       <c r="C67" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B67,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B67,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B67,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B67,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F67" s="69">
@@ -10625,7 +11037,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B67,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B67,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H67" s="38"/>
@@ -10640,12 +11052,12 @@
       <c r="A68" s="28"/>
       <c r="B68" s="7"/>
       <c r="C68" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B68,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B68,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B68,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B68,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F68" s="69">
@@ -10653,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B68,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B68,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H68" s="38"/>
@@ -10668,12 +11080,12 @@
       <c r="A69" s="28"/>
       <c r="B69" s="7"/>
       <c r="C69" s="28">
-        <f>_xlfn.IFNA(VLOOKUP(B69,'Danh mục hàng hóa'!$C$7:$D$33,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B69,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
         <v>0</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B69,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B69,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
         <v>0</v>
       </c>
       <c r="F69" s="69">
@@ -10681,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B69,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$32,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B69,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
       <c r="H69" s="38">
@@ -10704,20 +11116,20 @@
       <c r="D70" s="23"/>
       <c r="E70" s="45">
         <f>SUM(E6:E69)</f>
-        <v>0</v>
+        <v>6564727.4287610743</v>
       </c>
       <c r="F70" s="45">
         <f>SUM(F6:F69)</f>
-        <v>0</v>
+        <v>7693367.2864547595</v>
       </c>
       <c r="G70" s="45">
         <f>SUM(G6:G69)</f>
-        <v>0</v>
+        <v>9847091.1431416124</v>
       </c>
       <c r="H70" s="45"/>
       <c r="I70" s="45">
         <f>SUM(I6:I69)</f>
-        <v>0</v>
+        <v>12887000</v>
       </c>
       <c r="J70" s="23"/>
       <c r="K70" s="23"/>
@@ -10757,7 +11169,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{86C6C711-48C6-4C6B-B1B6-58EA74195338}">
           <x14:formula1>
-            <xm:f>'Danh mục hàng hóa'!$C$7:$C$38</xm:f>
+            <xm:f>'Danh mục hàng hóa'!$C$7:$C$39</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B69</xm:sqref>
         </x14:dataValidation>
@@ -10769,12 +11181,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:Q33"/>
+  <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10798,28 +11210,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
     </row>
     <row r="3" spans="1:17" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="113"/>
+      <c r="B3" s="118"/>
       <c r="C3" s="12" t="s">
         <v>65</v>
       </c>
@@ -10864,32 +11276,32 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="39" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119" t="s">
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="120"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="119" t="s">
+      <c r="G4" s="125"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="120"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="119" t="s">
+      <c r="J4" s="125"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="120"/>
-      <c r="N4" s="121"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="126"/>
       <c r="O4" s="98" t="s">
         <v>134</v>
       </c>
@@ -10901,8 +11313,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="39" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
-      <c r="B5" s="117"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="122"/>
       <c r="C5" s="31" t="s">
         <v>7</v>
       </c>
@@ -10952,7 +11364,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="34" t="str">
-        <f>VLOOKUP(A6,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A6,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>USB</v>
       </c>
       <c r="C6" s="37">
@@ -11016,7 +11428,7 @@
         <v>39</v>
       </c>
       <c r="B7" s="34" t="str">
-        <f>VLOOKUP(A7,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A7,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Chuột M24</v>
       </c>
       <c r="C7" s="37">
@@ -11026,7 +11438,7 @@
         <v>96821.919038737062</v>
       </c>
       <c r="E7" s="37">
-        <f t="shared" ref="E7:E32" si="0">C7*D7</f>
+        <f t="shared" ref="E7:E33" si="0">C7*D7</f>
         <v>7648931.604060228</v>
       </c>
       <c r="F7" s="37">
@@ -11038,32 +11450,32 @@
         <v>0</v>
       </c>
       <c r="H7" s="37">
-        <f t="shared" ref="H7:H32" si="1">F7*G7</f>
+        <f t="shared" ref="H7:H33" si="1">F7*G7</f>
         <v>0</v>
       </c>
       <c r="I7" s="37">
         <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A7,'Bán hàng'!$D$6:$D$69)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J7" s="37">
-        <f t="shared" ref="J7:J32" si="2">IFERROR((C7*D7+F7*G7)/(C7+F7),0)</f>
+        <f t="shared" ref="J7:J33" si="2">IFERROR((C7*D7+F7*G7)/(C7+F7),0)</f>
         <v>96821.919038737062</v>
       </c>
       <c r="K7" s="37">
-        <f t="shared" ref="K7:K32" si="3">I7*J7</f>
-        <v>0</v>
+        <f t="shared" ref="K7:K33" si="3">I7*J7</f>
+        <v>871397.27134863357</v>
       </c>
       <c r="L7" s="37">
-        <f t="shared" ref="L7:L32" si="4">C7+F7-I7</f>
-        <v>79</v>
+        <f t="shared" ref="L7:L33" si="4">C7+F7-I7</f>
+        <v>70</v>
       </c>
       <c r="M7" s="37">
-        <f t="shared" ref="M7:M32" si="5">J7</f>
+        <f t="shared" ref="M7:M33" si="5">J7</f>
         <v>96821.919038737062</v>
       </c>
       <c r="N7" s="94">
-        <f t="shared" ref="N7:N32" si="6">L7*M7</f>
-        <v>7648931.604060228</v>
+        <f t="shared" ref="N7:N33" si="6">L7*M7</f>
+        <v>6777534.3327115942</v>
       </c>
       <c r="O7" s="98"/>
       <c r="P7" s="39" t="s">
@@ -11078,7 +11490,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="34" t="str">
-        <f>VLOOKUP(A8,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A8,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Chuột IBM</v>
       </c>
       <c r="C8" s="37">
@@ -11140,7 +11552,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="34" t="str">
-        <f>VLOOKUP(A9,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A9,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="C9" s="37">
@@ -11167,7 +11579,7 @@
       </c>
       <c r="I9" s="37">
         <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A9,'Bán hàng'!$D$6:$D$69)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" s="37">
         <f>IFERROR((C9*D9+F9*G9)/(C9+F9),0)</f>
@@ -11175,11 +11587,11 @@
       </c>
       <c r="K9" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>515907.89680697903</v>
       </c>
       <c r="L9" s="37">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M9" s="37">
         <f t="shared" si="5"/>
@@ -11187,7 +11599,7 @@
       </c>
       <c r="N9" s="94">
         <f t="shared" si="6"/>
-        <v>2837493.4324383847</v>
+        <v>2321585.5356314057</v>
       </c>
       <c r="O9" s="98"/>
       <c r="P9" s="39" t="s">
@@ -11202,7 +11614,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="34" t="str">
-        <f>VLOOKUP(A10,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A10,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>USB C 3in1</v>
       </c>
       <c r="C10" s="37">
@@ -11258,7 +11670,7 @@
         <v>45</v>
       </c>
       <c r="B11" s="34" t="str">
-        <f>VLOOKUP(A11,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A11,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Chuột thinkpad</v>
       </c>
       <c r="C11" s="37">
@@ -11285,7 +11697,7 @@
       </c>
       <c r="I11" s="37">
         <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A11,'Bán hàng'!$D$6:$D$69)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="37">
         <f t="shared" si="2"/>
@@ -11293,11 +11705,11 @@
       </c>
       <c r="K11" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>251905.6</v>
       </c>
       <c r="L11" s="37">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11" s="37">
         <f t="shared" si="5"/>
@@ -11305,7 +11717,7 @@
       </c>
       <c r="N11" s="94">
         <f t="shared" si="6"/>
-        <v>1259528</v>
+        <v>1007622.4</v>
       </c>
       <c r="O11" s="98"/>
     </row>
@@ -11314,7 +11726,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="34" t="str">
-        <f>VLOOKUP(A12,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A12,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Trải bàn xiaomi</v>
       </c>
       <c r="C12" s="37">
@@ -11370,7 +11782,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="34" t="str">
-        <f>VLOOKUP(A13,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A13,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Sạc YOGA</v>
       </c>
       <c r="C13" s="37">
@@ -11397,7 +11809,7 @@
       </c>
       <c r="I13" s="37">
         <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A13,'Bán hàng'!$D$6:$D$69)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="37">
         <f t="shared" si="2"/>
@@ -11405,11 +11817,11 @@
       </c>
       <c r="K13" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>238082.66611622242</v>
       </c>
       <c r="L13" s="37">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" s="37">
         <f t="shared" si="5"/>
@@ -11417,7 +11829,7 @@
       </c>
       <c r="N13" s="94">
         <f t="shared" si="6"/>
-        <v>952330.66446488968</v>
+        <v>714247.99834866729</v>
       </c>
       <c r="O13" s="98"/>
     </row>
@@ -11426,7 +11838,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="34" t="str">
-        <f>VLOOKUP(A14,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A14,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Loa TS32A</v>
       </c>
       <c r="C14" s="37">
@@ -11482,7 +11894,7 @@
         <v>47</v>
       </c>
       <c r="B15" s="34" t="str">
-        <f>VLOOKUP(A15,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A15,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Sạc gen 1 có hộp</v>
       </c>
       <c r="C15" s="37">
@@ -11509,7 +11921,7 @@
       </c>
       <c r="I15" s="37">
         <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A15,'Bán hàng'!$D$6:$D$69)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="37">
         <f t="shared" si="2"/>
@@ -11517,11 +11929,11 @@
       </c>
       <c r="K15" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>249127</v>
       </c>
       <c r="L15" s="37">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="37">
         <f t="shared" si="5"/>
@@ -11529,7 +11941,7 @@
       </c>
       <c r="N15" s="94">
         <f t="shared" si="6"/>
-        <v>498254</v>
+        <v>249127</v>
       </c>
       <c r="O15" s="98"/>
     </row>
@@ -11538,7 +11950,7 @@
         <v>49</v>
       </c>
       <c r="B16" s="34" t="str">
-        <f>VLOOKUP(A16,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A16,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Sạc lenovo to type C</v>
       </c>
       <c r="C16" s="37">
@@ -11596,7 +12008,7 @@
         <v>48</v>
       </c>
       <c r="B17" s="34" t="str">
-        <f>VLOOKUP(A17,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A17,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Loa K3 Pro</v>
       </c>
       <c r="C17" s="37">
@@ -11623,7 +12035,7 @@
       </c>
       <c r="I17" s="37">
         <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A17,'Bán hàng'!$D$6:$D$69)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J17" s="37">
         <f t="shared" si="2"/>
@@ -11631,11 +12043,11 @@
       </c>
       <c r="K17" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1074217.1041666667</v>
       </c>
       <c r="L17" s="37">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M17" s="37">
         <f t="shared" si="5"/>
@@ -11643,7 +12055,7 @@
       </c>
       <c r="N17" s="94">
         <f t="shared" si="6"/>
-        <v>5048820.3895833334</v>
+        <v>3974603.2854166669</v>
       </c>
       <c r="O17" s="98">
         <v>58</v>
@@ -11654,7 +12066,7 @@
         <v>135</v>
       </c>
       <c r="B18" s="34" t="str">
-        <f>VLOOKUP(A18,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A18,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Sạc Thinkplus gen 2 có hộp trắng</v>
       </c>
       <c r="C18" s="37">
@@ -11710,7 +12122,7 @@
         <v>50</v>
       </c>
       <c r="B19" s="34" t="str">
-        <f>VLOOKUP(A19,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A19,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Sạc Thinkplus gen 2 k hộp</v>
       </c>
       <c r="C19" s="37">
@@ -11737,7 +12149,7 @@
       </c>
       <c r="I19" s="37">
         <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A19,'Bán hàng'!$D$6:$D$69)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="37">
         <f t="shared" si="2"/>
@@ -11745,11 +12157,11 @@
       </c>
       <c r="K19" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>298513.47499999998</v>
       </c>
       <c r="L19" s="37">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M19" s="37">
         <f t="shared" si="5"/>
@@ -11757,7 +12169,7 @@
       </c>
       <c r="N19" s="94">
         <f t="shared" si="6"/>
-        <v>1791080.8499999999</v>
+        <v>1492567.375</v>
       </c>
       <c r="O19" s="98" t="s">
         <v>156</v>
@@ -11768,7 +12180,7 @@
         <v>51</v>
       </c>
       <c r="B20" s="34" t="str">
-        <f>VLOOKUP(A20,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A20,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Dây type C to slim</v>
       </c>
       <c r="C20" s="37">
@@ -11795,7 +12207,7 @@
       </c>
       <c r="I20" s="37">
         <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A20,'Bán hàng'!$D$6:$D$69)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="37">
         <f t="shared" si="2"/>
@@ -11803,11 +12215,11 @@
       </c>
       <c r="K20" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>146041.20000000001</v>
       </c>
       <c r="L20" s="37">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M20" s="37">
         <f t="shared" si="5"/>
@@ -11815,7 +12227,7 @@
       </c>
       <c r="N20" s="94">
         <f t="shared" si="6"/>
-        <v>657185.4</v>
+        <v>511144.20000000007</v>
       </c>
       <c r="O20" s="98"/>
     </row>
@@ -11824,7 +12236,7 @@
         <v>157</v>
       </c>
       <c r="B21" s="34" t="str">
-        <f>VLOOKUP(A21,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A21,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Sạc lenovo to type C bóc máy</v>
       </c>
       <c r="C21" s="37">
@@ -11880,7 +12292,7 @@
         <v>143</v>
       </c>
       <c r="B22" s="34" t="str">
-        <f>VLOOKUP(A22,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A22,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Sạc Thinkplus trắng gen 2 new</v>
       </c>
       <c r="C22" s="37">
@@ -11936,7 +12348,7 @@
         <v>139</v>
       </c>
       <c r="B23" s="34" t="str">
-        <f>VLOOKUP(A23,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A23,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Sạc Thinkplus gen 2 đen new</v>
       </c>
       <c r="C23" s="37">
@@ -11951,39 +12363,39 @@
       </c>
       <c r="F23" s="37">
         <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A23,'Nhập hàng'!$H$5:$H$22)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G23" s="37">
         <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A23,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A23,'Nhập hàng'!$H$5:$H$22),0)</f>
-        <v>0</v>
+        <v>441200</v>
       </c>
       <c r="H23" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2206000</v>
       </c>
       <c r="I23" s="37">
         <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A23,'Bán hàng'!$D$6:$D$69)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" s="37">
         <f t="shared" si="13"/>
-        <v>468700</v>
+        <v>449057.14285714284</v>
       </c>
       <c r="K23" s="37">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1796228.5714285714</v>
       </c>
       <c r="L23" s="37">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M23" s="37">
         <f t="shared" si="16"/>
-        <v>468700</v>
+        <v>449057.14285714284</v>
       </c>
       <c r="N23" s="94">
         <f t="shared" si="17"/>
-        <v>937400</v>
+        <v>1347171.4285714286</v>
       </c>
       <c r="O23" s="98"/>
     </row>
@@ -11992,7 +12404,7 @@
         <v>140</v>
       </c>
       <c r="B24" s="34" t="str">
-        <f>VLOOKUP(A24,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A24,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Sạc Thinkplus gen 2 Pro đen new</v>
       </c>
       <c r="C24" s="37">
@@ -12019,7 +12431,7 @@
       </c>
       <c r="I24" s="37">
         <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A24,'Bán hàng'!$D$6:$D$69)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="37">
         <f t="shared" si="13"/>
@@ -12027,11 +12439,11 @@
       </c>
       <c r="K24" s="37">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>612000</v>
       </c>
       <c r="L24" s="37">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="37">
         <f t="shared" si="16"/>
@@ -12039,7 +12451,7 @@
       </c>
       <c r="N24" s="94">
         <f t="shared" si="17"/>
-        <v>612000</v>
+        <v>0</v>
       </c>
       <c r="O24" s="98"/>
     </row>
@@ -12048,7 +12460,7 @@
         <v>136</v>
       </c>
       <c r="B25" s="34" t="str">
-        <f>VLOOKUP(A25,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A25,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 14</v>
       </c>
       <c r="C25" s="37">
@@ -12075,7 +12487,7 @@
       </c>
       <c r="I25" s="37">
         <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A25,'Bán hàng'!$D$6:$D$69)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" s="37">
         <f t="shared" si="13"/>
@@ -12083,11 +12495,11 @@
       </c>
       <c r="K25" s="37">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>478594.21769613971</v>
       </c>
       <c r="L25" s="37">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M25" s="37">
         <f t="shared" si="16"/>
@@ -12095,7 +12507,7 @@
       </c>
       <c r="N25" s="94">
         <f t="shared" si="17"/>
-        <v>1076836.9898163143</v>
+        <v>598242.7721201746</v>
       </c>
       <c r="O25" s="98"/>
     </row>
@@ -12104,7 +12516,7 @@
         <v>146</v>
       </c>
       <c r="B26" s="34" t="str">
-        <f>VLOOKUP(A26,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A26,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Sạc gan 1 đen new</v>
       </c>
       <c r="C26" s="37">
@@ -12160,7 +12572,7 @@
         <v>148</v>
       </c>
       <c r="B27" s="34" t="str">
-        <f>VLOOKUP(A27,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A27,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>USB C 6in1</v>
       </c>
       <c r="C27" s="37">
@@ -12216,7 +12628,7 @@
         <v>137</v>
       </c>
       <c r="B28" s="34" t="str">
-        <f>VLOOKUP(A28,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A28,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Balo thinkbook trắng</v>
       </c>
       <c r="C28" s="37">
@@ -12272,7 +12684,7 @@
         <v>160</v>
       </c>
       <c r="B29" s="34" t="str">
-        <f>VLOOKUP(A29,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A29,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 15.6</v>
       </c>
       <c r="C29" s="37">
@@ -12328,7 +12740,7 @@
         <v>153</v>
       </c>
       <c r="B30" s="34" t="str">
-        <f>VLOOKUP(A30,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A30,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Sạc YOGA 2 cổng C</v>
       </c>
       <c r="C30" s="37">
@@ -12384,7 +12796,7 @@
         <v>151</v>
       </c>
       <c r="B31" s="34" t="str">
-        <f>VLOOKUP(A31,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <f>VLOOKUP(A31,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
         <v>Chuột Thinklife</v>
       </c>
       <c r="C31" s="37">
@@ -12411,7 +12823,7 @@
       </c>
       <c r="I31" s="37">
         <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A31,'Bán hàng'!$D$6:$D$69)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" s="37">
         <f t="shared" ref="J31" si="43">IFERROR((C31*D31+F31*G31)/(C31+F31),0)</f>
@@ -12419,11 +12831,11 @@
       </c>
       <c r="K31" s="37">
         <f t="shared" ref="K31" si="44">I31*J31</f>
-        <v>0</v>
+        <v>936838.95055821375</v>
       </c>
       <c r="L31" s="37">
         <f t="shared" ref="L31" si="45">C31+F31-I31</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M31" s="37">
         <f t="shared" ref="M31" si="46">J31</f>
@@ -12431,111 +12843,165 @@
       </c>
       <c r="N31" s="94">
         <f t="shared" ref="N31" si="47">L31*M31</f>
-        <v>936838.95055821375</v>
+        <v>0</v>
       </c>
       <c r="O31" s="98"/>
     </row>
     <row r="32" spans="1:15" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="B32" s="34" t="str">
-        <f>VLOOKUP(A32,'Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
-        <v>Sạc Dell</v>
+        <f>VLOOKUP(A32,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <v>USB 2 đầu 64GB</v>
       </c>
       <c r="C32" s="37">
-        <v>2</v>
-      </c>
-      <c r="D32" s="37">
-        <v>148750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D32" s="37"/>
       <c r="E32" s="37">
         <f t="shared" si="0"/>
-        <v>297500</v>
+        <v>0</v>
       </c>
       <c r="F32" s="37">
         <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A32,'Nhập hàng'!$H$5:$H$22)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G32" s="37">
         <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A32,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A32,'Nhập hàng'!$H$5:$H$22),0)</f>
-        <v>0</v>
+        <v>112256.66666666667</v>
       </c>
       <c r="H32" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="H32" si="48">F32*G32</f>
+        <v>1683850</v>
       </c>
       <c r="I32" s="37">
         <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A32,'Bán hàng'!$D$6:$D$69)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" s="37">
+        <f t="shared" ref="J32" si="49">IFERROR((C32*D32+F32*G32)/(C32+F32),0)</f>
+        <v>112256.66666666667</v>
+      </c>
+      <c r="K32" s="37">
+        <f t="shared" ref="K32" si="50">I32*J32</f>
+        <v>224513.33333333334</v>
+      </c>
+      <c r="L32" s="37">
+        <f t="shared" ref="L32" si="51">C32+F32-I32</f>
+        <v>13</v>
+      </c>
+      <c r="M32" s="37">
+        <f t="shared" ref="M32" si="52">J32</f>
+        <v>112256.66666666667</v>
+      </c>
+      <c r="N32" s="94">
+        <f t="shared" ref="N32" si="53">L32*M32</f>
+        <v>1459336.6666666667</v>
+      </c>
+      <c r="O32" s="98"/>
+    </row>
+    <row r="33" spans="1:15" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="34" t="str">
+        <f>VLOOKUP(A33,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <v>Sạc Dell</v>
+      </c>
+      <c r="C33" s="37">
+        <v>2</v>
+      </c>
+      <c r="D33" s="37">
+        <v>148750</v>
+      </c>
+      <c r="E33" s="37">
+        <f t="shared" si="0"/>
+        <v>297500</v>
+      </c>
+      <c r="F33" s="37">
+        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A33,'Nhập hàng'!$H$5:$H$22)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="37">
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A33,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A33,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="37">
+        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A33,'Bán hàng'!$D$6:$D$69)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="37">
         <f t="shared" si="2"/>
         <v>148750</v>
       </c>
-      <c r="K32" s="37">
+      <c r="K33" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L32" s="37">
+      <c r="L33" s="37">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M33" s="37">
         <f t="shared" si="5"/>
         <v>148750</v>
       </c>
-      <c r="N32" s="94">
+      <c r="N33" s="94">
         <f t="shared" si="6"/>
         <v>297500</v>
       </c>
-      <c r="O32" s="98"/>
-    </row>
-    <row r="33" spans="1:15" s="39" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58" t="s">
+      <c r="O33" s="98"/>
+    </row>
+    <row r="34" spans="1:15" s="39" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58">
-        <f>SUM(C6:C32)</f>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58">
+        <f>SUM(C6:C33)</f>
         <v>236</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59">
-        <f>SUM(E6:E32)</f>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59">
+        <f>SUM(E6:E33)</f>
         <v>32110883.927055873</v>
       </c>
-      <c r="F33" s="59">
-        <f>SUM(F6:F32)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="59">
-        <f>SUM(G6:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="59">
-        <f>SUM(H6:H32)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="59">
-        <f>SUM(I6:I32)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59">
-        <f>SUM(K6:K32)</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="59">
-        <f>SUM(L6:L32)</f>
-        <v>236</v>
-      </c>
-      <c r="M33" s="59"/>
-      <c r="N33" s="95">
-        <f>SUM(N6:N32)</f>
-        <v>32110883.927055873</v>
-      </c>
-      <c r="O33" s="98"/>
+      <c r="F34" s="59">
+        <f>SUM(F6:F33)</f>
+        <v>20</v>
+      </c>
+      <c r="G34" s="59">
+        <f>SUM(G6:G33)</f>
+        <v>553456.66666666663</v>
+      </c>
+      <c r="H34" s="59">
+        <f>SUM(H6:H33)</f>
+        <v>3889850</v>
+      </c>
+      <c r="I34" s="59">
+        <f>SUM(I6:I33)</f>
+        <v>43</v>
+      </c>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59">
+        <f>SUM(K6:K33)</f>
+        <v>7693367.2864547595</v>
+      </c>
+      <c r="L34" s="59">
+        <f>SUM(L6:L33)</f>
+        <v>213</v>
+      </c>
+      <c r="M34" s="59"/>
+      <c r="N34" s="95">
+        <f>SUM(N6:N33)</f>
+        <v>28307366.64060111</v>
+      </c>
+      <c r="O34" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12566,9 +13032,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
-            <xm:f>'Danh mục hàng hóa'!$C$7:$C$33</xm:f>
+            <xm:f>'Danh mục hàng hóa'!$C$7:$C$34</xm:f>
           </x14:formula1>
-          <xm:sqref>A6:A32</xm:sqref>
+          <xm:sqref>A6:A33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12581,7 +13047,7 @@
   <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12599,13 +13065,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
     </row>
     <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
@@ -12647,12 +13113,16 @@
     </row>
     <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="54"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33">
+      <c r="C5" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="33" t="str">
         <f t="shared" ref="D5:D24" si="0">_xlfn.IFNA(VLOOKUP(C5,$H$6:$I$6,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="41"/>
+        <v>Chi phí bán hàng</v>
+      </c>
+      <c r="E5" s="41">
+        <v>500000</v>
+      </c>
       <c r="F5" s="82"/>
       <c r="J5" s="39" t="s">
         <v>71</v>
@@ -12660,12 +13130,16 @@
     </row>
     <row r="6" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="54"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33">
+      <c r="C6" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="41"/>
+        <v>Chi phí bán hàng</v>
+      </c>
+      <c r="E6" s="41">
+        <v>880000</v>
+      </c>
       <c r="F6" s="82"/>
       <c r="H6" s="33" t="s">
         <v>89</v>
@@ -12675,7 +13149,7 @@
       </c>
       <c r="J6" s="41">
         <f>SUMIF($C$5:$C$24,H6,$E$5:$E$24)</f>
-        <v>0</v>
+        <v>1380000</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12905,7 +13379,7 @@
       <c r="D25" s="35"/>
       <c r="E25" s="67">
         <f>SUM(E5:E24)</f>
-        <v>0</v>
+        <v>1380000</v>
       </c>
       <c r="F25" s="83"/>
     </row>
@@ -12964,10 +13438,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" s="30" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G2" s="105" t="s">
+      <c r="G2" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="105"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
@@ -13019,7 +13493,7 @@
       </c>
       <c r="H5" s="41">
         <f>'Bán hàng'!N14</f>
-        <v>0</v>
+        <v>12887000</v>
       </c>
       <c r="J5" s="39" t="s">
         <v>90</v>
@@ -13028,13 +13502,13 @@
         <v>94</v>
       </c>
       <c r="M5" s="79"/>
-      <c r="O5" s="126"/>
+      <c r="O5" s="105"/>
     </row>
     <row r="6" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="122">
+      <c r="B6" s="101">
         <v>12856000</v>
       </c>
       <c r="C6" s="57">
@@ -13043,7 +13517,7 @@
       </c>
       <c r="D6" s="77">
         <f>C6*H10</f>
-        <v>0</v>
+        <v>1195623.9087853946</v>
       </c>
       <c r="E6" s="7"/>
       <c r="G6" s="33" t="s">
@@ -13051,7 +13525,7 @@
       </c>
       <c r="H6" s="41">
         <f>'Bán hàng'!O14</f>
-        <v>0</v>
+        <v>7693367.2864547595</v>
       </c>
       <c r="J6" s="39" t="s">
         <v>96</v>
@@ -13066,7 +13540,7 @@
       <c r="A7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="122">
+      <c r="B7" s="101">
         <v>19283000</v>
       </c>
       <c r="C7" s="57">
@@ -13075,7 +13549,7 @@
       </c>
       <c r="D7" s="77">
         <f>C7*H10</f>
-        <v>0</v>
+        <v>1793342.8619406321</v>
       </c>
       <c r="E7" s="7"/>
       <c r="G7" s="33" t="s">
@@ -13083,7 +13557,7 @@
       </c>
       <c r="H7" s="41">
         <f>'Các khoản chi phí'!J6</f>
-        <v>0</v>
+        <v>1380000</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>91</v>
@@ -13094,17 +13568,17 @@
       <c r="M7" s="79"/>
     </row>
     <row r="8" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="125">
+      <c r="B8" s="104">
         <f>SUM(B6:B7)</f>
         <v>32139000</v>
       </c>
-      <c r="C8" s="124"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="78">
         <f>SUM(D6:D7)</f>
-        <v>0</v>
+        <v>2988966.770726027</v>
       </c>
       <c r="E8" s="63"/>
       <c r="G8" s="35" t="s">
@@ -13112,7 +13586,7 @@
       </c>
       <c r="H8" s="41">
         <f>H5-H6-H7</f>
-        <v>0</v>
+        <v>3813632.7135452405</v>
       </c>
       <c r="J8" s="39" t="s">
         <v>92</v>
@@ -13132,7 +13606,7 @@
       </c>
       <c r="H9" s="41">
         <f>'Bán hàng'!Q14</f>
-        <v>0</v>
+        <v>824665.94281921373</v>
       </c>
       <c r="J9" s="39" t="s">
         <v>93</v>
@@ -13148,7 +13622,7 @@
       </c>
       <c r="H10" s="65">
         <f>+H8-H9</f>
-        <v>0</v>
+        <v>2988966.770726027</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>124</v>

--- a/TDStore/TD store_Tháng 4.2023.xlsx
+++ b/TDStore/TD store_Tháng 4.2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02DF11A-D6FD-4C10-AB36-A64A494B3987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD439C5-BD5A-42A0-AF78-00A2E3CE5630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp tồn kho cũ" sheetId="2" r:id="rId1"/>
@@ -8729,7 +8729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
     </sheetView>
@@ -11184,7 +11184,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
@@ -13411,8 +13411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
